--- a/biology/Botanique/Wahlenbergia_hederacea/Wahlenbergia_hederacea.xlsx
+++ b/biology/Botanique/Wahlenbergia_hederacea/Wahlenbergia_hederacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wahlenbergia hederacea, la wahlenbergie à feuilles de lierre ou campanille à feuilles de lierre est une plante herbacée vivace de la famille des Campanulaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante très grêle, couchée, de 10 à 30 cm en largeur, à feuilles de 1 à 2 cm ; fleurs de 8 à 10 mm portée par un pédoncule grêle de 2 à 4 cm. Floraison de juin à octobre.
 </t>
@@ -542,7 +556,9 @@
           <t>Milieu de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wahlenbergia hederacea vit dans les marais et pelouses humides des terrains siliceux jusqu'à une altitude d'environ 1 000 m.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve Wahlenbergia hederacea en Europe occidentale, centrale et du nord, et notamment dans l'ouest et le centre de la France.
 </t>
@@ -604,9 +622,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est inscrite sur les listes des espèces végétales protégées en Alsace[2], en Bourgogne[3], dans le Centre[4], en Champagne-Ardenne[5], en Île-de-France[6], en Lorraine[7] et en Rhône-Alpes[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est inscrite sur les listes des espèces végétales protégées en Alsace, en Bourgogne, dans le Centre, en Champagne-Ardenne, en Île-de-France, en Lorraine et en Rhône-Alpes.
 </t>
         </is>
       </c>
